--- a/tests/files/NestedMarkdown1.ipynb.xlsx
+++ b/tests/files/NestedMarkdown1.ipynb.xlsx
@@ -137,7 +137,7 @@
     <t>Another sub item</t>
   </si>
   <si>
-    <t>9.5.1 - Example: List link)</t>
+    <t>9.5.1 - Example: List link</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
